--- a/biology/Zoologie/José_Vicente_Barbosa_du_Bocage/José_Vicente_Barbosa_du_Bocage.xlsx
+++ b/biology/Zoologie/José_Vicente_Barbosa_du_Bocage/José_Vicente_Barbosa_du_Bocage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Vicente_Barbosa_du_Bocage</t>
+          <t>José_Vicente_Barbosa_du_Bocage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-José Vicente Barbosa[1] du Bocage est un homme politique et un  zoologiste portugais, né le 2 mai 1823 à Funchal et mort le 3 novembre 1907 à Lisbonne. Il est le cousin au second degré du poète Manuel Maria Barbosa du Bocage.
+José Vicente Barbosa du Bocage est un homme politique et un  zoologiste portugais, né le 2 mai 1823 à Funchal et mort le 3 novembre 1907 à Lisbonne. Il est le cousin au second degré du poète Manuel Maria Barbosa du Bocage.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Vicente_Barbosa_du_Bocage</t>
+          <t>José_Vicente_Barbosa_du_Bocage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de mathématiques et de médecine à l’université de Coimbra de 1839 à 1846. Après quelques problèmes d’ordre politique, il obtient en 1849 un poste de professeur de zoologie à l’école polytechnique (aujourd’hui université) de Lisbonne.
 Plus tard, il dirige le département de zoologie du muséum national d'histoire naturelle de Lisbonne, qui sera d’ailleurs rebaptisé Museu Bocage en son honneur en 1905.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Vicente_Barbosa_du_Bocage</t>
+          <t>José_Vicente_Barbosa_du_Bocage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A ornitologia dos Açores, 1866
 Aves das possessões portuguesas d’Africa occidental que existem no Museu de Lisboa, 24 numéros de 1868 à 1882
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Vicente_Barbosa_du_Bocage</t>
+          <t>José_Vicente_Barbosa_du_Bocage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Barboza est parfois graphié avec un z.
